--- a/Excel_quiz.xlsx
+++ b/Excel_quiz.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\embedded\units materials &amp;videos\code\Mastering-embedded-systems-online-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D50D369-BAA0-4063-B880-0C06DFB65899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -18,13 +24,58 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>quiz 1</t>
+  </si>
+  <si>
+    <t>60/60</t>
+  </si>
+  <si>
+    <t>quiz 2</t>
+  </si>
+  <si>
+    <t>36/36</t>
+  </si>
+  <si>
+    <t>quiz 3</t>
+  </si>
+  <si>
+    <t>40/40</t>
+  </si>
+  <si>
+    <t>quiz 4</t>
+  </si>
+  <si>
+    <t>34/34</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -49,8 +100,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +383,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel_quiz.xlsx
+++ b/Excel_quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\embedded\units materials &amp;videos\code\Mastering-embedded-systems-online-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D50D369-BAA0-4063-B880-0C06DFB65899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA3182C-B5CF-4521-B3FB-83BF8CE88B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>quiz 1</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>34/34</t>
+  </si>
+  <si>
+    <t>quiz 5</t>
+  </si>
+  <si>
+    <t>30/30</t>
   </si>
 </sst>
 </file>
@@ -387,7 +393,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,8 +431,12 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel_quiz.xlsx
+++ b/Excel_quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\embedded\units materials &amp;videos\code\Mastering-embedded-systems-online-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA3182C-B5CF-4521-B3FB-83BF8CE88B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5D633F-965A-4C7C-93BE-076CE5CF5765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>quiz 1</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>30/30</t>
+  </si>
+  <si>
+    <t>quiz 6</t>
+  </si>
+  <si>
+    <t>39/39</t>
   </si>
 </sst>
 </file>
@@ -390,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,6 +444,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
